--- a/raw/1950election.xlsx
+++ b/raw/1950election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF34358-60D3-AE47-9898-2D29D37AD2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002D4CAD-7169-B84E-9108-1EA26C64ACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16120" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6235,7 +6235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6542,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B959" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H963" sqref="H963"/>
+    <sheetView tabSelected="1" topLeftCell="E760" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H771" sqref="H771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -18819,7 +18819,7 @@
         <v>815</v>
       </c>
       <c r="C541" t="s">
-        <v>7</v>
+        <v>1698</v>
       </c>
       <c r="E541" t="s">
         <v>819</v>
@@ -18839,7 +18839,7 @@
         <v>815</v>
       </c>
       <c r="C542" t="s">
-        <v>7</v>
+        <v>1727</v>
       </c>
       <c r="D542" t="s">
         <v>13</v>
@@ -18862,7 +18862,7 @@
         <v>815</v>
       </c>
       <c r="C543" t="s">
-        <v>7</v>
+        <v>1727</v>
       </c>
       <c r="D543" t="s">
         <v>13</v>
@@ -18885,7 +18885,7 @@
         <v>815</v>
       </c>
       <c r="C544" t="s">
-        <v>7</v>
+        <v>1727</v>
       </c>
       <c r="D544" t="s">
         <v>10</v>
@@ -18908,7 +18908,7 @@
         <v>815</v>
       </c>
       <c r="C545" t="s">
-        <v>7</v>
+        <v>1727</v>
       </c>
       <c r="D545" t="s">
         <v>10</v>
@@ -24050,6 +24050,9 @@
       </c>
       <c r="G770" t="s">
         <v>1101</v>
+      </c>
+      <c r="H770">
+        <v>1955</v>
       </c>
     </row>
     <row r="771" spans="1:8">
